--- a/backend/src/services/output/Bitacoras.xlsx
+++ b/backend/src/services/output/Bitacoras.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -449,22 +449,22 @@
         <v>101</v>
       </c>
       <c r="D2" t="str">
-        <v>Geralt</v>
+        <v>11</v>
       </c>
       <c r="E2" t="str">
-        <v>de Rivia</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
-        <v>45494.8328125</v>
+        <v>45500.01059027778</v>
       </c>
       <c r="H2" t="str">
-        <v>Un Veneco</v>
+        <v>11</v>
       </c>
       <c r="I2" t="str">
         <v>PENDING</v>
       </c>
       <c r="J2" s="1">
-        <v>45500.00293581018</v>
+        <v>45500.010901030095</v>
       </c>
     </row>
     <row r="3">
@@ -478,22 +478,22 @@
         <v>101</v>
       </c>
       <c r="D3" t="str">
-        <v>Pablo</v>
+        <v>jdlk</v>
       </c>
       <c r="E3" t="str">
-        <v>santos</v>
+        <v>dlsa</v>
       </c>
       <c r="F3" s="1">
-        <v>45500.00711805555</v>
+        <v>45500.077256944445</v>
       </c>
       <c r="H3" t="str">
-        <v>Veneco</v>
+        <v>leoas</v>
       </c>
       <c r="I3" t="str">
         <v>PENDING</v>
       </c>
       <c r="J3" s="1">
-        <v>45500.00761385417</v>
+        <v>45500.077541782404</v>
       </c>
     </row>
     <row r="4">
@@ -507,22 +507,22 @@
         <v>101</v>
       </c>
       <c r="D4" t="str">
-        <v>11</v>
+        <v>juan</v>
       </c>
       <c r="E4" t="str">
-        <v>11</v>
+        <v>carlos</v>
       </c>
       <c r="F4" s="1">
-        <v>45500.01059027778</v>
+        <v>45501.00503472222</v>
       </c>
       <c r="H4" t="str">
-        <v>11</v>
+        <v>pepe</v>
       </c>
       <c r="I4" t="str">
         <v>PENDING</v>
       </c>
       <c r="J4" s="1">
-        <v>45500.010901030095</v>
+        <v>45501.005729861114</v>
       </c>
     </row>
     <row r="5">
@@ -536,22 +536,22 @@
         <v>101</v>
       </c>
       <c r="D5" t="str">
-        <v>jdlk</v>
+        <v>algo</v>
       </c>
       <c r="E5" t="str">
-        <v>dlsa</v>
+        <v>algoo</v>
       </c>
       <c r="F5" s="1">
-        <v>45500.077256944445</v>
+        <v>45501.955034722225</v>
       </c>
       <c r="H5" t="str">
-        <v>leoas</v>
+        <v>alge</v>
       </c>
       <c r="I5" t="str">
         <v>PENDING</v>
       </c>
       <c r="J5" s="1">
-        <v>45500.077541782404</v>
+        <v>45501.955593101855</v>
       </c>
     </row>
     <row r="6">
@@ -565,179 +565,34 @@
         <v>101</v>
       </c>
       <c r="D6" t="str">
-        <v>Geralt</v>
+        <v>aa</v>
       </c>
       <c r="E6" t="str">
-        <v>deRivia</v>
+        <v>ee</v>
       </c>
       <c r="F6" s="1">
-        <v>45494.8328125</v>
+        <v>45501.95642361111</v>
       </c>
       <c r="H6" t="str">
-        <v>UnVeneco</v>
+        <v>rr</v>
       </c>
       <c r="I6" t="str">
         <v>PENDING</v>
       </c>
       <c r="J6" s="1">
-        <v>45500.78068145833</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>admin admin</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Delivery</v>
-      </c>
-      <c r="C7">
-        <v>101</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Juan</v>
-      </c>
-      <c r="E7" t="str">
-        <v>valdez</v>
-      </c>
-      <c r="F7" s="1">
-        <v>45500.782118055555</v>
-      </c>
-      <c r="H7" t="str">
-        <v>vene</v>
-      </c>
-      <c r="I7" t="str">
-        <v>PENDING</v>
-      </c>
-      <c r="J7" s="1">
-        <v>45500.78160540509</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>admin admin</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Delivery</v>
-      </c>
-      <c r="C8">
-        <v>101</v>
-      </c>
-      <c r="D8" t="str">
-        <v>juan</v>
-      </c>
-      <c r="E8" t="str">
-        <v>carlos</v>
-      </c>
-      <c r="F8" s="1">
-        <v>45501.00503472222</v>
-      </c>
-      <c r="H8" t="str">
-        <v>pepe</v>
-      </c>
-      <c r="I8" t="str">
-        <v>PENDING</v>
-      </c>
-      <c r="J8" s="1">
-        <v>45501.005729861114</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>admin admin</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Delivery</v>
-      </c>
-      <c r="C9">
-        <v>101</v>
-      </c>
-      <c r="D9" t="str">
-        <v>algo</v>
-      </c>
-      <c r="E9" t="str">
-        <v>algoo</v>
-      </c>
-      <c r="F9" s="1">
-        <v>45501.955034722225</v>
-      </c>
-      <c r="H9" t="str">
-        <v>alge</v>
-      </c>
-      <c r="I9" t="str">
-        <v>PENDING</v>
-      </c>
-      <c r="J9" s="1">
-        <v>45501.955593101855</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>admin admin</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Delivery</v>
-      </c>
-      <c r="C10">
-        <v>101</v>
-      </c>
-      <c r="D10" t="str">
-        <v>aa</v>
-      </c>
-      <c r="E10" t="str">
-        <v>ee</v>
-      </c>
-      <c r="F10" s="1">
-        <v>45501.95642361111</v>
-      </c>
-      <c r="H10" t="str">
-        <v>rr</v>
-      </c>
-      <c r="I10" t="str">
-        <v>PENDING</v>
-      </c>
-      <c r="J10" s="1">
         <v>45501.95689715278</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>admin admin</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Delivery</v>
-      </c>
-      <c r="C11">
-        <v>101</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Geralt</v>
-      </c>
-      <c r="E11" t="str">
-        <v>deRivia</v>
-      </c>
-      <c r="F11" s="1">
-        <v>45494.8328125</v>
-      </c>
-      <c r="H11" t="str">
-        <v>UnVeneco</v>
-      </c>
-      <c r="I11" t="str">
-        <v>PENDING</v>
-      </c>
-      <c r="J11" s="1">
-        <v>45502.52183929398</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J6"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -822,22 +677,22 @@
         <v>admin admin</v>
       </c>
       <c r="B4" t="str">
-        <v>66a46aa0a6df9bb82c9c2630</v>
+        <v>66a511384ec9d68cafe24baa</v>
       </c>
       <c r="C4" t="str">
         <v>Visita</v>
       </c>
       <c r="D4" t="str">
-        <v>Juan</v>
+        <v>aaa</v>
       </c>
       <c r="E4" t="str">
-        <v>Valdebenito</v>
+        <v>sss</v>
       </c>
       <c r="F4" t="str">
-        <v>11111111-1</v>
+        <v>44444444-4</v>
       </c>
       <c r="H4" s="1">
-        <v>45499.98133678241</v>
+        <v>45500.474946898146</v>
       </c>
     </row>
     <row r="5">
@@ -845,22 +700,22 @@
         <v>admin admin</v>
       </c>
       <c r="B5" t="str">
-        <v>66a4708529afe173a76e603a</v>
+        <v>66a5116a4ec9d68cafe24bb5</v>
       </c>
       <c r="C5" t="str">
         <v>Visita</v>
       </c>
       <c r="D5" t="str">
-        <v xml:space="preserve">pablo </v>
+        <v>Juan</v>
       </c>
       <c r="E5" t="str">
-        <v>santo</v>
+        <v>Valdebenito</v>
       </c>
       <c r="F5" t="str">
-        <v>22222222-2</v>
+        <v>11111111-1</v>
       </c>
       <c r="H5" s="1">
-        <v>45499.99879677084</v>
+        <v>45500.4755269213</v>
       </c>
     </row>
     <row r="6">
@@ -868,7 +723,7 @@
         <v>admin admin</v>
       </c>
       <c r="B6" t="str">
-        <v>66a47d92142547e2668f49c4</v>
+        <v>66a514fdfdebda9fe3cce177</v>
       </c>
       <c r="C6" t="str">
         <v>Visita</v>
@@ -883,7 +738,7 @@
         <v>11111111-1</v>
       </c>
       <c r="H6" s="1">
-        <v>45500.03747128472</v>
+        <v>45500.48611582176</v>
       </c>
     </row>
     <row r="7">
@@ -891,7 +746,7 @@
         <v>admin admin</v>
       </c>
       <c r="B7" t="str">
-        <v>66a47d92142547e2668f49c9</v>
+        <v>66a517c60af5cdae16839819</v>
       </c>
       <c r="C7" t="str">
         <v>Visita</v>
@@ -906,7 +761,7 @@
         <v>11111111-1</v>
       </c>
       <c r="H7" s="1">
-        <v>45500.03747469907</v>
+        <v>45500.494373090274</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +769,7 @@
         <v>admin admin</v>
       </c>
       <c r="B8" t="str">
-        <v>66a47e79142547e2668f49e4</v>
+        <v>66a518d82726d325ba6f4952</v>
       </c>
       <c r="C8" t="str">
         <v>Visita</v>
@@ -928,8 +783,11 @@
       <c r="F8" t="str">
         <v>11111111-1</v>
       </c>
+      <c r="G8">
+        <v>101</v>
+      </c>
       <c r="H8" s="1">
-        <v>45500.04013969907</v>
+        <v>45500.49754626158</v>
       </c>
     </row>
     <row r="9">
@@ -937,22 +795,25 @@
         <v>admin admin</v>
       </c>
       <c r="B9" t="str">
-        <v>66a48af5142547e2668f4b41</v>
+        <v>66a5195678a5689cd886b8db</v>
       </c>
       <c r="C9" t="str">
         <v>Visita</v>
       </c>
       <c r="D9" t="str">
-        <v>Pato</v>
+        <v>Juan</v>
       </c>
       <c r="E9" t="str">
-        <v>And</v>
+        <v>Valdebenito</v>
       </c>
       <c r="F9" t="str">
-        <v>22222222-2</v>
+        <v>11111111-1</v>
+      </c>
+      <c r="G9">
+        <v>101</v>
       </c>
       <c r="H9" s="1">
-        <v>45500.077139050925</v>
+        <v>45500.49900349537</v>
       </c>
     </row>
     <row r="10">
@@ -960,22 +821,25 @@
         <v>admin admin</v>
       </c>
       <c r="B10" t="str">
-        <v>66a511384ec9d68cafe24baa</v>
+        <v>66a519c678a5689cd886b8e2</v>
       </c>
       <c r="C10" t="str">
         <v>Visita</v>
       </c>
       <c r="D10" t="str">
-        <v>aaa</v>
+        <v>eeeee</v>
       </c>
       <c r="E10" t="str">
-        <v>sss</v>
+        <v>rrrrr</v>
       </c>
       <c r="F10" t="str">
-        <v>44444444-4</v>
+        <v>22222222-2</v>
+      </c>
+      <c r="G10">
+        <v>101</v>
       </c>
       <c r="H10" s="1">
-        <v>45500.474946898146</v>
+        <v>45500.50028954861</v>
       </c>
     </row>
     <row r="11">
@@ -983,22 +847,25 @@
         <v>admin admin</v>
       </c>
       <c r="B11" t="str">
-        <v>66a5116a4ec9d68cafe24bb5</v>
+        <v>66a5c40b49d560bd04f6cf3c</v>
       </c>
       <c r="C11" t="str">
         <v>Visita</v>
       </c>
       <c r="D11" t="str">
-        <v>Juan</v>
+        <v>pepe</v>
       </c>
       <c r="E11" t="str">
-        <v>Valdebenito</v>
+        <v>grillo</v>
       </c>
       <c r="F11" t="str">
-        <v>11111111-1</v>
+        <v>10101101-1</v>
+      </c>
+      <c r="G11">
+        <v>101</v>
       </c>
       <c r="H11" s="1">
-        <v>45500.4755269213</v>
+        <v>45501.00479414352</v>
       </c>
     </row>
     <row r="12">
@@ -1006,187 +873,37 @@
         <v>admin admin</v>
       </c>
       <c r="B12" t="str">
-        <v>66a514fdfdebda9fe3cce177</v>
+        <v>66a6d67342dd5eca66e5dceb</v>
       </c>
       <c r="C12" t="str">
         <v>Visita</v>
       </c>
       <c r="D12" t="str">
-        <v>Juan</v>
+        <v>aa</v>
       </c>
       <c r="E12" t="str">
-        <v>Valdebenito</v>
+        <v>dd</v>
       </c>
       <c r="F12" t="str">
         <v>11111111-1</v>
       </c>
+      <c r="G12">
+        <v>101</v>
+      </c>
       <c r="H12" s="1">
-        <v>45500.48611582176</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>admin admin</v>
-      </c>
-      <c r="B13" t="str">
-        <v>66a517c60af5cdae16839819</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Visita</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Juan</v>
-      </c>
-      <c r="E13" t="str">
-        <v>Valdebenito</v>
-      </c>
-      <c r="F13" t="str">
-        <v>11111111-1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>45500.494373090274</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>admin admin</v>
-      </c>
-      <c r="B14" t="str">
-        <v>66a518d82726d325ba6f4952</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Visita</v>
-      </c>
-      <c r="D14" t="str">
-        <v>Juan</v>
-      </c>
-      <c r="E14" t="str">
-        <v>Valdebenito</v>
-      </c>
-      <c r="F14" t="str">
-        <v>11111111-1</v>
-      </c>
-      <c r="G14">
-        <v>101</v>
-      </c>
-      <c r="H14" s="1">
-        <v>45500.49754626158</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>admin admin</v>
-      </c>
-      <c r="B15" t="str">
-        <v>66a5195678a5689cd886b8db</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Visita</v>
-      </c>
-      <c r="D15" t="str">
-        <v>Juan</v>
-      </c>
-      <c r="E15" t="str">
-        <v>Valdebenito</v>
-      </c>
-      <c r="F15" t="str">
-        <v>11111111-1</v>
-      </c>
-      <c r="G15">
-        <v>101</v>
-      </c>
-      <c r="H15" s="1">
-        <v>45500.49900349537</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>admin admin</v>
-      </c>
-      <c r="B16" t="str">
-        <v>66a519c678a5689cd886b8e2</v>
-      </c>
-      <c r="C16" t="str">
-        <v>Visita</v>
-      </c>
-      <c r="D16" t="str">
-        <v>eeeee</v>
-      </c>
-      <c r="E16" t="str">
-        <v>rrrrr</v>
-      </c>
-      <c r="F16" t="str">
-        <v>22222222-2</v>
-      </c>
-      <c r="G16">
-        <v>101</v>
-      </c>
-      <c r="H16" s="1">
-        <v>45500.50028954861</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>admin admin</v>
-      </c>
-      <c r="B17" t="str">
-        <v>66a5c40b49d560bd04f6cf3c</v>
-      </c>
-      <c r="C17" t="str">
-        <v>Visita</v>
-      </c>
-      <c r="D17" t="str">
-        <v>pepe</v>
-      </c>
-      <c r="E17" t="str">
-        <v>grillo</v>
-      </c>
-      <c r="F17" t="str">
-        <v>10101101-1</v>
-      </c>
-      <c r="G17">
-        <v>101</v>
-      </c>
-      <c r="H17" s="1">
-        <v>45501.00479414352</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>admin admin</v>
-      </c>
-      <c r="B18" t="str">
-        <v>66a6d67342dd5eca66e5dceb</v>
-      </c>
-      <c r="C18" t="str">
-        <v>Visita</v>
-      </c>
-      <c r="D18" t="str">
-        <v>aa</v>
-      </c>
-      <c r="E18" t="str">
-        <v>dd</v>
-      </c>
-      <c r="F18" t="str">
-        <v>11111111-1</v>
-      </c>
-      <c r="G18">
-        <v>101</v>
-      </c>
-      <c r="H18" s="1">
         <v>45501.817855625</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H12"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1245,7 +962,7 @@
         <v>admin admin</v>
       </c>
       <c r="B3" t="str">
-        <v>66a485b1142547e2668f4ad2</v>
+        <v>66a52ab33d09db9f15d2f47e</v>
       </c>
       <c r="C3" t="str">
         <v>Espacio Comunitario</v>
@@ -1254,13 +971,13 @@
         <v>barbecue - Jardín Central</v>
       </c>
       <c r="E3" s="1">
-        <v>2958464.8744791667</v>
+        <v>45500.63489583333</v>
       </c>
       <c r="F3" s="1">
-        <v>45499.37447916667</v>
+        <v>45500.677256944444</v>
       </c>
       <c r="H3" s="1">
-        <v>45500.06153474537</v>
+        <v>45500.55044414352</v>
       </c>
     </row>
     <row r="4">
@@ -1268,7 +985,7 @@
         <v>admin admin</v>
       </c>
       <c r="B4" t="str">
-        <v>66a485b9142547e2668f4af9</v>
+        <v>66a5699b7df716e859397e22</v>
       </c>
       <c r="C4" t="str">
         <v>Espacio Comunitario</v>
@@ -1277,13 +994,13 @@
         <v>barbecue - Jardín Central</v>
       </c>
       <c r="E4" s="1">
-        <v>2958464.8744791667</v>
+        <v>45500.778645833336</v>
       </c>
       <c r="F4" s="1">
-        <v>45499.37447916667</v>
+        <v>45500.78072916667</v>
       </c>
       <c r="H4" s="1">
-        <v>45500.061627407405</v>
+        <v>45500.73682900463</v>
       </c>
     </row>
     <row r="5">
@@ -1291,7 +1008,7 @@
         <v>admin admin</v>
       </c>
       <c r="B5" t="str">
-        <v>66a48654142547e2668f4b20</v>
+        <v>66a56a317df716e859397e38</v>
       </c>
       <c r="C5" t="str">
         <v>Espacio Comunitario</v>
@@ -1300,13 +1017,13 @@
         <v>barbecue - Jardín Central</v>
       </c>
       <c r="E5" s="1">
-        <v>2958464.8744791667</v>
+        <v>45500.73836805556</v>
       </c>
       <c r="F5" s="1">
-        <v>45499.37447916667</v>
+        <v>45500.78142361111</v>
       </c>
       <c r="H5" s="1">
-        <v>45500.06342145833</v>
+        <v>45500.73857105324</v>
       </c>
     </row>
     <row r="6">
@@ -1314,7 +1031,7 @@
         <v>admin admin</v>
       </c>
       <c r="B6" t="str">
-        <v>66a48654142547e2668f4b25</v>
+        <v>66a56a577df716e859397e49</v>
       </c>
       <c r="C6" t="str">
         <v>Espacio Comunitario</v>
@@ -1323,13 +1040,13 @@
         <v>barbecue - Jardín Central</v>
       </c>
       <c r="E6" s="1">
-        <v>37255.99947916667</v>
+        <v>45500.73836805556</v>
       </c>
       <c r="F6" s="1">
-        <v>45499.37447916667</v>
+        <v>45500.74045138889</v>
       </c>
       <c r="H6" s="1">
-        <v>45500.063424837965</v>
+        <v>45500.73900483796</v>
       </c>
     </row>
     <row r="7">
@@ -1337,7 +1054,7 @@
         <v>admin admin</v>
       </c>
       <c r="B7" t="str">
-        <v>66a48655142547e2668f4b2a</v>
+        <v>66a56d4bd8b827ae2477f43d</v>
       </c>
       <c r="C7" t="str">
         <v>Espacio Comunitario</v>
@@ -1346,13 +1063,16 @@
         <v>barbecue - Jardín Central</v>
       </c>
       <c r="E7" s="1">
-        <v>37255.99947916667</v>
+        <v>45499.24947916667</v>
       </c>
       <c r="F7" s="1">
         <v>45499.37447916667</v>
       </c>
+      <c r="G7" t="str">
+        <v>admin admin</v>
+      </c>
       <c r="H7" s="1">
-        <v>45500.063428194444</v>
+        <v>45500.74776315972</v>
       </c>
     </row>
     <row r="8">
@@ -1360,7 +1080,7 @@
         <v>admin admin</v>
       </c>
       <c r="B8" t="str">
-        <v>66a48b05142547e2668f4b4d</v>
+        <v>66a56d63d8b827ae2477f448</v>
       </c>
       <c r="C8" t="str">
         <v>Espacio Comunitario</v>
@@ -1369,13 +1089,16 @@
         <v>barbecue - Jardín Central</v>
       </c>
       <c r="E8" s="1">
-        <v>45500.0765625</v>
+        <v>45500.747395833336</v>
       </c>
       <c r="F8" s="1">
-        <v>45500.205729166664</v>
+        <v>45500.74947916667</v>
+      </c>
+      <c r="G8" t="str">
+        <v>admin admin</v>
       </c>
       <c r="H8" s="1">
-        <v>45500.07732525463</v>
+        <v>45500.748038680555</v>
       </c>
     </row>
     <row r="9">
@@ -1383,7 +1106,7 @@
         <v>admin admin</v>
       </c>
       <c r="B9" t="str">
-        <v>66a52ab33d09db9f15d2f47e</v>
+        <v>66a5789e481eae71ebccd544</v>
       </c>
       <c r="C9" t="str">
         <v>Espacio Comunitario</v>
@@ -1392,13 +1115,16 @@
         <v>barbecue - Jardín Central</v>
       </c>
       <c r="E9" s="1">
-        <v>45500.63489583333</v>
+        <v>45500.78072916667</v>
       </c>
       <c r="F9" s="1">
-        <v>45500.677256944444</v>
+        <v>45500.782118055555</v>
+      </c>
+      <c r="G9" t="str">
+        <v>admin admin</v>
       </c>
       <c r="H9" s="1">
-        <v>45500.55044414352</v>
+        <v>45500.781316898145</v>
       </c>
     </row>
     <row r="10">
@@ -1406,7 +1132,7 @@
         <v>admin admin</v>
       </c>
       <c r="B10" t="str">
-        <v>66a5699b7df716e859397e22</v>
+        <v>66a5be3fa67c3443054bd503</v>
       </c>
       <c r="C10" t="str">
         <v>Espacio Comunitario</v>
@@ -1415,13 +1141,16 @@
         <v>barbecue - Jardín Central</v>
       </c>
       <c r="E10" s="1">
-        <v>45500.778645833336</v>
+        <v>45500.528645833336</v>
       </c>
       <c r="F10" s="1">
-        <v>45500.78072916667</v>
+        <v>45500.8203125</v>
+      </c>
+      <c r="G10" t="str">
+        <v>admin admin</v>
       </c>
       <c r="H10" s="1">
-        <v>45500.73682900463</v>
+        <v>45500.98762314815</v>
       </c>
     </row>
     <row r="11">
@@ -1429,7 +1158,7 @@
         <v>admin admin</v>
       </c>
       <c r="B11" t="str">
-        <v>66a56a317df716e859397e38</v>
+        <v>66a5be7da67c3443054bd514</v>
       </c>
       <c r="C11" t="str">
         <v>Espacio Comunitario</v>
@@ -1438,13 +1167,16 @@
         <v>barbecue - Jardín Central</v>
       </c>
       <c r="E11" s="1">
-        <v>45500.73836805556</v>
+        <v>45499.24947916667</v>
       </c>
       <c r="F11" s="1">
-        <v>45500.78142361111</v>
+        <v>45499.37447916667</v>
+      </c>
+      <c r="G11" t="str">
+        <v>admin admin</v>
       </c>
       <c r="H11" s="1">
-        <v>45500.73857105324</v>
+        <v>45500.98834487268</v>
       </c>
     </row>
     <row r="12">
@@ -1452,7 +1184,7 @@
         <v>admin admin</v>
       </c>
       <c r="B12" t="str">
-        <v>66a56a577df716e859397e49</v>
+        <v>66a5beb4a67c3443054bd51f</v>
       </c>
       <c r="C12" t="str">
         <v>Espacio Comunitario</v>
@@ -1461,13 +1193,16 @@
         <v>barbecue - Jardín Central</v>
       </c>
       <c r="E12" s="1">
-        <v>45500.73836805556</v>
+        <v>45499.24947916667</v>
       </c>
       <c r="F12" s="1">
-        <v>45500.74045138889</v>
+        <v>45499.37447916667</v>
+      </c>
+      <c r="G12" t="str">
+        <v>admin admin</v>
       </c>
       <c r="H12" s="1">
-        <v>45500.73900483796</v>
+        <v>45500.9889787963</v>
       </c>
     </row>
     <row r="13">
@@ -1475,7 +1210,7 @@
         <v>admin admin</v>
       </c>
       <c r="B13" t="str">
-        <v>66a56d4bd8b827ae2477f43d</v>
+        <v>66a5c030c493f8c5928bd7b2</v>
       </c>
       <c r="C13" t="str">
         <v>Espacio Comunitario</v>
@@ -1493,7 +1228,7 @@
         <v>admin admin</v>
       </c>
       <c r="H13" s="1">
-        <v>45500.74776315972</v>
+        <v>45500.993379293985</v>
       </c>
     </row>
     <row r="14">
@@ -1501,7 +1236,7 @@
         <v>admin admin</v>
       </c>
       <c r="B14" t="str">
-        <v>66a56d63d8b827ae2477f448</v>
+        <v>66a734a2f1912f4768f252c0</v>
       </c>
       <c r="C14" t="str">
         <v>Espacio Comunitario</v>
@@ -1510,16 +1245,16 @@
         <v>barbecue - Jardín Central</v>
       </c>
       <c r="E14" s="1">
-        <v>45500.747395833336</v>
+        <v>37255.99947916667</v>
       </c>
       <c r="F14" s="1">
-        <v>45500.74947916667</v>
+        <v>45499.37447916667</v>
       </c>
       <c r="G14" t="str">
         <v>admin admin</v>
       </c>
       <c r="H14" s="1">
-        <v>45500.748038680555</v>
+        <v>45502.09691606482</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1262,7 @@
         <v>admin admin</v>
       </c>
       <c r="B15" t="str">
-        <v>66a5789e481eae71ebccd544</v>
+        <v>66a7352ef1912f4768f252d7</v>
       </c>
       <c r="C15" t="str">
         <v>Espacio Comunitario</v>
@@ -1536,16 +1271,16 @@
         <v>barbecue - Jardín Central</v>
       </c>
       <c r="E15" s="1">
-        <v>45500.78072916667</v>
+        <v>37255.99947916667</v>
       </c>
       <c r="F15" s="1">
-        <v>45500.782118055555</v>
+        <v>45499.37447916667</v>
       </c>
       <c r="G15" t="str">
         <v>admin admin</v>
       </c>
       <c r="H15" s="1">
-        <v>45500.781316898145</v>
+        <v>45502.098538321756</v>
       </c>
     </row>
     <row r="16">
@@ -1553,7 +1288,7 @@
         <v>admin admin</v>
       </c>
       <c r="B16" t="str">
-        <v>66a5be3fa67c3443054bd503</v>
+        <v>66a7355ff1912f4768f252e0</v>
       </c>
       <c r="C16" t="str">
         <v>Espacio Comunitario</v>
@@ -1562,16 +1297,16 @@
         <v>barbecue - Jardín Central</v>
       </c>
       <c r="E16" s="1">
-        <v>45500.528645833336</v>
+        <v>45499.24947916667</v>
       </c>
       <c r="F16" s="1">
-        <v>45500.8203125</v>
+        <v>45499.37447916667</v>
       </c>
       <c r="G16" t="str">
         <v>admin admin</v>
       </c>
       <c r="H16" s="1">
-        <v>45500.98762314815</v>
+        <v>45502.09910708333</v>
       </c>
     </row>
     <row r="17">
@@ -1579,7 +1314,7 @@
         <v>admin admin</v>
       </c>
       <c r="B17" t="str">
-        <v>66a5be7da67c3443054bd514</v>
+        <v>66a73570f1912f4768f252e5</v>
       </c>
       <c r="C17" t="str">
         <v>Espacio Comunitario</v>
@@ -1597,168 +1332,12 @@
         <v>admin admin</v>
       </c>
       <c r="H17" s="1">
-        <v>45500.98834487268</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>admin admin</v>
-      </c>
-      <c r="B18" t="str">
-        <v>66a5beb4a67c3443054bd51f</v>
-      </c>
-      <c r="C18" t="str">
-        <v>Espacio Comunitario</v>
-      </c>
-      <c r="D18" t="str">
-        <v>barbecue - Jardín Central</v>
-      </c>
-      <c r="E18" s="1">
-        <v>45499.24947916667</v>
-      </c>
-      <c r="F18" s="1">
-        <v>45499.37447916667</v>
-      </c>
-      <c r="G18" t="str">
-        <v>admin admin</v>
-      </c>
-      <c r="H18" s="1">
-        <v>45500.9889787963</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>admin admin</v>
-      </c>
-      <c r="B19" t="str">
-        <v>66a5c030c493f8c5928bd7b2</v>
-      </c>
-      <c r="C19" t="str">
-        <v>Espacio Comunitario</v>
-      </c>
-      <c r="D19" t="str">
-        <v>barbecue - Jardín Central</v>
-      </c>
-      <c r="E19" s="1">
-        <v>45499.24947916667</v>
-      </c>
-      <c r="F19" s="1">
-        <v>45499.37447916667</v>
-      </c>
-      <c r="G19" t="str">
-        <v>admin admin</v>
-      </c>
-      <c r="H19" s="1">
-        <v>45500.993379293985</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>admin admin</v>
-      </c>
-      <c r="B20" t="str">
-        <v>66a734a2f1912f4768f252c0</v>
-      </c>
-      <c r="C20" t="str">
-        <v>Espacio Comunitario</v>
-      </c>
-      <c r="D20" t="str">
-        <v>barbecue - Jardín Central</v>
-      </c>
-      <c r="E20" s="1">
-        <v>37255.99947916667</v>
-      </c>
-      <c r="F20" s="1">
-        <v>45499.37447916667</v>
-      </c>
-      <c r="G20" t="str">
-        <v>admin admin</v>
-      </c>
-      <c r="H20" s="1">
-        <v>45502.09691606482</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>admin admin</v>
-      </c>
-      <c r="B21" t="str">
-        <v>66a7352ef1912f4768f252d7</v>
-      </c>
-      <c r="C21" t="str">
-        <v>Espacio Comunitario</v>
-      </c>
-      <c r="D21" t="str">
-        <v>barbecue - Jardín Central</v>
-      </c>
-      <c r="E21" s="1">
-        <v>37255.99947916667</v>
-      </c>
-      <c r="F21" s="1">
-        <v>45499.37447916667</v>
-      </c>
-      <c r="G21" t="str">
-        <v>admin admin</v>
-      </c>
-      <c r="H21" s="1">
-        <v>45502.098538321756</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>admin admin</v>
-      </c>
-      <c r="B22" t="str">
-        <v>66a7355ff1912f4768f252e0</v>
-      </c>
-      <c r="C22" t="str">
-        <v>Espacio Comunitario</v>
-      </c>
-      <c r="D22" t="str">
-        <v>barbecue - Jardín Central</v>
-      </c>
-      <c r="E22" s="1">
-        <v>45499.24947916667</v>
-      </c>
-      <c r="F22" s="1">
-        <v>45499.37447916667</v>
-      </c>
-      <c r="G22" t="str">
-        <v>admin admin</v>
-      </c>
-      <c r="H22" s="1">
-        <v>45502.09910708333</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>admin admin</v>
-      </c>
-      <c r="B23" t="str">
-        <v>66a73570f1912f4768f252e5</v>
-      </c>
-      <c r="C23" t="str">
-        <v>Espacio Comunitario</v>
-      </c>
-      <c r="D23" t="str">
-        <v>barbecue - Jardín Central</v>
-      </c>
-      <c r="E23" s="1">
-        <v>45499.24947916667</v>
-      </c>
-      <c r="F23" s="1">
-        <v>45499.37447916667</v>
-      </c>
-      <c r="G23" t="str">
-        <v>admin admin</v>
-      </c>
-      <c r="H23" s="1">
         <v>45502.099305497686</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H23"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H17"/>
   </ignoredErrors>
 </worksheet>
 </file>
